--- a/Materiales.xlsx
+++ b/Materiales.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martín\Desktop\TFG\TFG_RADAR_60GHZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30DF566-8C29-406D-8239-9EF9121CD7F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3BE311-7D32-409D-A2DB-99BCF04453D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DFDBB7D5-93C9-4C53-A258-975A4D96DFF8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{DFDBB7D5-93C9-4C53-A258-975A4D96DFF8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="MATERIALES" sheetId="1" r:id="rId1"/>
+    <sheet name="CARTON" sheetId="2" r:id="rId2"/>
+    <sheet name="PLASTICO" sheetId="3" r:id="rId3"/>
+    <sheet name="CRISTAL" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="343">
   <si>
     <t>CARTON</t>
   </si>
@@ -1446,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F561AC-0987-4F85-A070-E4FBE2974D0D}">
   <dimension ref="B1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2618,4 +2621,530 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162CC9E3-E8D6-40F4-B277-2E4D262BC383}">
+  <dimension ref="B2:K24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B16" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B21" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B22" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K24" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9886133-A272-46F5-B1C4-CB985E19FBA9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89B7AF6-0F6C-42F2-BFEB-CBF34CD0F662}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>